--- a/csv_output/fred.xlsx
+++ b/csv_output/fred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeAnne.Chen\Documents\UiPath\YouTube_HUB_LC\csv_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8E7E36-09E7-464B-8A75-2C6916AE1806}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC45D5E-B40A-400A-B566-1C71C66D10C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
